--- a/src/main/webapp/WEB-INF/wineprice/Tarif Formats 2016 Duclot Export.xlsx
+++ b/src/main/webapp/WEB-INF/wineprice/Tarif Formats 2016 Duclot Export.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="5472" windowWidth="12516" windowHeight="1956"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
     <definedName name="Z_1C64645B_A12A_4438_ABEB_4D7360EAFF72_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
     <definedName name="Z_24A4290E_7F79_4C28_92CA_057B47F41F42_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
-    <definedName name="Z_4D8D7095_7A79_412D_ADAD_B988457F8B44_.wvu.Cols" localSheetId="0" hidden="1">Feuil1!$IV:$IV</definedName>
-    <definedName name="Z_4D8D7095_7A79_412D_ADAD_B988457F8B44_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
     <definedName name="Z_5DF4CEDA_4523_49B7_9C49_FC8611FF3AA1_.wvu.Cols" localSheetId="0" hidden="1">Feuil1!$IV:$IV</definedName>
     <definedName name="Z_5DF4CEDA_4523_49B7_9C49_FC8611FF3AA1_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
+    <definedName name="Z_5E443476_1C60_477D_8A49_61680F114F59_.wvu.Cols" localSheetId="0" hidden="1">Feuil1!$IV:$IV</definedName>
+    <definedName name="Z_5E443476_1C60_477D_8A49_61680F114F59_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
     <definedName name="Z_60103C02_CA8B_4C56_BC88_D3633E263772_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
     <definedName name="Z_68C7A9E5_036F_4DD3_A805_314E491C8CD0_.wvu.Cols" localSheetId="0" hidden="1">Feuil1!$H:$IV</definedName>
     <definedName name="Z_68C7A9E5_036F_4DD3_A805_314E491C8CD0_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
@@ -40,17 +40,17 @@
     <definedName name="Z_E690B21E_BFAF_4A02_823B_1819B4722AAE_.wvu.Cols" localSheetId="0" hidden="1">Feuil1!$H:$IV</definedName>
     <definedName name="Z_E690B21E_BFAF_4A02_823B_1819B4722AAE_.wvu.FilterData" localSheetId="0" hidden="1">Feuil1!$A$80:$H$856</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
   <customWorkbookViews>
-    <customWorkbookView name="JamesHo - 個人檢視畫面" guid="{4D8D7095-7A79-412D-ADAD-B988457F8B44}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="1"/>
+    <customWorkbookView name="JamesHo - 個人檢視畫面" guid="{5E443476-1C60-477D-8A49-61680F114F59}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="1"/>
+    <customWorkbookView name="Maud Cresson - Affichage personnalisé" guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="962" windowHeight="808" activeSheetId="1"/>
+    <customWorkbookView name="Thibault Lacoste - Affichage personnalisé" guid="{9452BFA9-F306-4F48-B1C8-741501AD081D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="795" activeSheetId="1"/>
+    <customWorkbookView name="Laura Logre - Affichage personnalisé" guid="{452505BE-0BE3-46DF-BB0E-5E07CA09DA45}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="894" activeSheetId="1"/>
+    <customWorkbookView name="Patrice Gavand - Affichage personnalisé" guid="{89073D8E-0AE0-49EC-9FD8-20E398E04528}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="825" activeSheetId="1"/>
+    <customWorkbookView name="Pauline Gaillard Vittori - Affichage personnalisé" guid="{A34CCFF0-52F5-4E7F-9598-85E015771CFF}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1366" windowHeight="498" activeSheetId="1"/>
+    <customWorkbookView name="Gerda Beziade - Affichage personnalisé" guid="{E690B21E-BFAF-4A02-823B-1819B4722AAE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="855" activeSheetId="1"/>
+    <customWorkbookView name="Louis De Baritault - Affichage personnalisé" guid="{68C7A9E5-036F-4DD3-A805-314E491C8CD0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="755" activeSheetId="1"/>
     <customWorkbookView name="Pilar Rioual Rodriguez - Affichage personnalisé" guid="{6951E995-407C-4861-AA2B-D6241F5E37C7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="805" activeSheetId="1"/>
-    <customWorkbookView name="Louis De Baritault - Affichage personnalisé" guid="{68C7A9E5-036F-4DD3-A805-314E491C8CD0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="755" activeSheetId="1"/>
-    <customWorkbookView name="Gerda Beziade - Affichage personnalisé" guid="{E690B21E-BFAF-4A02-823B-1819B4722AAE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="855" activeSheetId="1"/>
-    <customWorkbookView name="Pauline Gaillard Vittori - Affichage personnalisé" guid="{A34CCFF0-52F5-4E7F-9598-85E015771CFF}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1366" windowHeight="498" activeSheetId="1"/>
-    <customWorkbookView name="Patrice Gavand - Affichage personnalisé" guid="{89073D8E-0AE0-49EC-9FD8-20E398E04528}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1680" windowHeight="825" activeSheetId="1"/>
-    <customWorkbookView name="Laura Logre - Affichage personnalisé" guid="{452505BE-0BE3-46DF-BB0E-5E07CA09DA45}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="894" activeSheetId="1"/>
-    <customWorkbookView name="Thibault Lacoste - Affichage personnalisé" guid="{9452BFA9-F306-4F48-B1C8-741501AD081D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1920" windowHeight="795" activeSheetId="1"/>
-    <customWorkbookView name="Maud Cresson - Affichage personnalisé" guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" mergeInterval="0" personalView="1" maximized="1" windowWidth="962" windowHeight="808" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1008,7 +1008,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.00\ _€"/>
+    <numFmt numFmtId="189" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1224,7 +1224,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,7 +1345,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,7 +1378,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1464,32 +1464,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{47EB1399-6BE0-4755-A8A8-51D5BBD434D1}" diskRevisions="1" revisionId="4903" version="3">
-  <header guid="{F3A23B86-346D-4B33-9660-BF9B819767E5}" dateTime="2015-12-17T17:01:56" maxSheetId="2" userName="Maud Cresson" r:id="rId73" minRId="4695" maxRId="4703">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{89A482CE-0CD0-4CB5-9097-97480CC07D7C}" dateTime="2015-12-21T13:10:31" maxSheetId="2" userName="Thibault Lacoste" r:id="rId74" minRId="4704">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B3E0C131-77C1-499D-BFF3-DA2DD480B257}" dateTime="2015-12-21T13:51:06" maxSheetId="2" userName="Maud Cresson" r:id="rId75">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EB08C2EF-28B0-4008-84A8-7C092CBCEA16}" dateTime="2015-12-22T11:39:44" maxSheetId="2" userName="Laura Logre" r:id="rId76" minRId="4705" maxRId="4716">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4707055D-2584-45A4-91B8-EDAA980DDE01}" dateTime="2015-12-22T14:28:30" maxSheetId="2" userName="Laura Logre" r:id="rId77" minRId="4717" maxRId="4718">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A93432AE-89FC-46BE-8920-940F4FF011D8}" diskRevisions="1" revisionId="4901" version="2">
   <header guid="{A9352194-A7D3-481A-B511-2223A56F301E}" dateTime="2015-12-30T12:12:07" maxSheetId="2" userName="Laura Logre" r:id="rId78" minRId="4719" maxRId="4766">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1620,32 +1595,12 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
-  <header guid="{6C2E3B24-9561-44B8-8BD9-95ECF395B803}" dateTime="2016-01-15T00:24:00" maxSheetId="2" userName="JamesHo" r:id="rId104">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{47EB1399-6BE0-4755-A8A8-51D5BBD434D1}" dateTime="2016-01-15T00:24:07" maxSheetId="2" userName="JamesHo" r:id="rId105">
+  <header guid="{A93432AE-89FC-46BE-8920-940F4FF011D8}" dateTime="2016-01-23T16:37:27" maxSheetId="2" userName="JamesHo" r:id="rId104">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{4D8D7095-7A79-412D-ADAD-B988457F8B44}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4D8D7095_7A79_412D_ADAD_B988457F8B44_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Feuil1!$IV:$IV</formula>
-    <oldFormula>Feuil1!$IV:$IV</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4D8D7095_7A79_412D_ADAD_B988457F8B44_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Feuil1!$A$80:$H$856</formula>
-    <oldFormula>Feuil1!$A$80:$H$856</oldFormula>
-  </rdn>
-  <rcv guid="{4D8D7095-7A79-412D-ADAD-B988457F8B44}" action="add"/>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1925,219 +1880,13 @@
 
 <file path=xl/revisions/revisionLog104.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4D8D7095_7A79_412D_ADAD_B988457F8B44_.wvu.Cols" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_5E443476_1C60_477D_8A49_61680F114F59_.wvu.Cols" hidden="1" oldHidden="1">
     <formula>Feuil1!$IV:$IV</formula>
   </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_4D8D7095_7A79_412D_ADAD_B988457F8B44_.wvu.FilterData" hidden="1" oldHidden="1">
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_5E443476_1C60_477D_8A49_61680F114F59_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Feuil1!$A$80:$H$856</formula>
   </rdn>
-  <rcv guid="{4D8D7095-7A79-412D-ADAD-B988457F8B44}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="4695" sId="1" ref="A632:XFD632" action="insertRow">
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_E690B21E_BFAF_4A02_823B_1819B4722AAE_.wvu.Cols" sId="1"/>
-    <undo index="2" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_A34CCFF0_52F5_4E7F_9598_85E015771CFF_.wvu.Cols" sId="1"/>
-    <undo index="1" exp="area" ref3D="1" dr="$D$1:$D$65536" dn="Z_A34CCFF0_52F5_4E7F_9598_85E015771CFF_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_9452BFA9_F306_4F48_B1C8_741501AD081D_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_68C7A9E5_036F_4DD3_A805_314E491C8CD0_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$IV$1:$IV$65536" dn="Z_5DF4CEDA_4523_49B7_9C49_FC8611FF3AA1_.wvu.Cols" sId="1"/>
-    <undo index="2" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_89073D8E_0AE0_49EC_9FD8_20E398E04528_.wvu.Cols" sId="1"/>
-    <undo index="1" exp="area" ref3D="1" dr="$D$1:$D$65536" dn="Z_89073D8E_0AE0_49EC_9FD8_20E398E04528_.wvu.Cols" sId="1"/>
-  </rrc>
-  <rcc rId="4696" sId="1">
-    <nc r="A632" t="inlineStr">
-      <is>
-        <t>FIGEAC</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4697" sId="1">
-    <nc r="B632" t="inlineStr">
-      <is>
-        <t>Saint Emilion</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4698" sId="1">
-    <nc r="E632">
-      <v>300</v>
-    </nc>
-  </rcc>
-  <rcc rId="4699" sId="1">
-    <nc r="C632" t="inlineStr">
-      <is>
-        <t>1 GCC</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4700" sId="1">
-    <nc r="D632">
-      <v>2003</v>
-    </nc>
-  </rcc>
-  <rcc rId="4701" sId="1">
-    <nc r="G632" t="inlineStr">
-      <is>
-        <t>Double Magnum</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4702" sId="1">
-    <nc r="F632" t="inlineStr">
-      <is>
-        <t>3 cases of 1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4703" sId="1">
-    <oc r="F674" t="inlineStr">
-      <is>
-        <t>3 case of 1</t>
-      </is>
-    </oc>
-    <nc r="F674" t="inlineStr">
-      <is>
-        <t>3 cases of 1</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" action="delete"/>
-  <rcv guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4704" sId="1">
-    <oc r="F496" t="inlineStr">
-      <is>
-        <t>100 cases of 6</t>
-      </is>
-    </oc>
-    <nc r="F496" t="inlineStr">
-      <is>
-        <t>50 cases of 6</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{9452BFA9-F306-4F48-B1C8-741501AD081D}" action="delete"/>
-  <rcv guid="{9452BFA9-F306-4F48-B1C8-741501AD081D}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" action="delete"/>
-  <rcv guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="4705" sId="1" ref="A92:XFD92" action="insertRow">
-    <undo index="2" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_89073D8E_0AE0_49EC_9FD8_20E398E04528_.wvu.Cols" sId="1"/>
-    <undo index="1" exp="area" ref3D="1" dr="$D$1:$D$65536" dn="Z_89073D8E_0AE0_49EC_9FD8_20E398E04528_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$IV$1:$IV$65536" dn="Z_5DF4CEDA_4523_49B7_9C49_FC8611FF3AA1_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_E690B21E_BFAF_4A02_823B_1819B4722AAE_.wvu.Cols" sId="1"/>
-    <undo index="2" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_A34CCFF0_52F5_4E7F_9598_85E015771CFF_.wvu.Cols" sId="1"/>
-    <undo index="1" exp="area" ref3D="1" dr="$D$1:$D$65536" dn="Z_A34CCFF0_52F5_4E7F_9598_85E015771CFF_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_68C7A9E5_036F_4DD3_A805_314E491C8CD0_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_9452BFA9_F306_4F48_B1C8_741501AD081D_.wvu.Cols" sId="1"/>
-  </rrc>
-  <rrc rId="4706" sId="1" ref="A92:XFD92" action="insertRow">
-    <undo index="2" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_89073D8E_0AE0_49EC_9FD8_20E398E04528_.wvu.Cols" sId="1"/>
-    <undo index="1" exp="area" ref3D="1" dr="$D$1:$D$65536" dn="Z_89073D8E_0AE0_49EC_9FD8_20E398E04528_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$IV$1:$IV$65536" dn="Z_5DF4CEDA_4523_49B7_9C49_FC8611FF3AA1_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_E690B21E_BFAF_4A02_823B_1819B4722AAE_.wvu.Cols" sId="1"/>
-    <undo index="2" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_A34CCFF0_52F5_4E7F_9598_85E015771CFF_.wvu.Cols" sId="1"/>
-    <undo index="1" exp="area" ref3D="1" dr="$D$1:$D$65536" dn="Z_A34CCFF0_52F5_4E7F_9598_85E015771CFF_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_68C7A9E5_036F_4DD3_A805_314E491C8CD0_.wvu.Cols" sId="1"/>
-    <undo index="0" exp="area" ref3D="1" dr="$H$1:$IV$65536" dn="Z_9452BFA9_F306_4F48_B1C8_741501AD081D_.wvu.Cols" sId="1"/>
-  </rrc>
-  <rcc rId="4707" sId="1">
-    <nc r="A92" t="inlineStr">
-      <is>
-        <t xml:space="preserve">DOISY DAENE </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4708" sId="1">
-    <nc r="A93" t="inlineStr">
-      <is>
-        <t xml:space="preserve">DOISY DAENE </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4709" sId="1">
-    <nc r="B92" t="inlineStr">
-      <is>
-        <t>Barsac</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4710" sId="1">
-    <nc r="B93" t="inlineStr">
-      <is>
-        <t>Barsac</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4711" sId="1">
-    <nc r="D92">
-      <v>2013</v>
-    </nc>
-  </rcc>
-  <rcc rId="4712" sId="1">
-    <nc r="D93">
-      <v>2012</v>
-    </nc>
-  </rcc>
-  <rcc rId="4713" sId="1">
-    <nc r="E93">
-      <v>13</v>
-    </nc>
-  </rcc>
-  <rcc rId="4714" sId="1">
-    <nc r="E92">
-      <v>13</v>
-    </nc>
-  </rcc>
-  <rcc rId="4715" sId="1">
-    <nc r="G92" t="inlineStr">
-      <is>
-        <t>Half bottles</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4716" sId="1">
-    <nc r="G93" t="inlineStr">
-      <is>
-        <t>Half bottles</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="4717" sId="1">
-    <nc r="F93" t="inlineStr">
-      <is>
-        <t>10 cases of 6</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="4718" sId="1">
-    <nc r="F92" t="inlineStr">
-      <is>
-        <t>16 cases of 6</t>
-      </is>
-    </nc>
-  </rcc>
+  <rcv guid="{5E443476-1C60-477D-8A49-61680F114F59}" action="add"/>
 </revisions>
 </file>
 
@@ -4730,13 +4479,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A15:IV873"/>
+  <dimension ref="A15:IU873"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="120" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E864" sqref="E864"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0.125" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="35.75" style="13" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
@@ -4747,8 +4496,7 @@
     <col min="7" max="7" width="22.875" style="8" customWidth="1"/>
     <col min="8" max="8" width="7.625" style="8" customWidth="1"/>
     <col min="9" max="255" width="11.375" style="1" customWidth="1"/>
-    <col min="256" max="256" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="257" max="16384" width="0.125" style="1"/>
+    <col min="256" max="16384" width="0.125" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -32258,7 +32006,7 @@
   </sheetData>
   <autoFilter ref="A80:H856"/>
   <customSheetViews>
-    <customSheetView guid="{4D8D7095-7A79-412D-ADAD-B988457F8B44}" scale="85" fitToPage="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A49">
+    <customSheetView guid="{5E443476-1C60-477D-8A49-61680F114F59}" scale="85" fitToPage="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A49">
       <selection activeCell="E864" sqref="E864"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
@@ -32272,8 +32020,8 @@
       </headerFooter>
       <autoFilter ref="A80:H856"/>
     </customSheetView>
-    <customSheetView guid="{6951E995-407C-4861-AA2B-D6241F5E37C7}" scale="120" fitToPage="1" hiddenColumns="1" topLeftCell="A65">
-      <selection activeCell="I80" sqref="I80"/>
+    <customSheetView guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" scale="85" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A49">
+      <selection activeCell="E864" sqref="E864"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId2"/>
@@ -32284,9 +32032,10 @@
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
+      <autoFilter ref="B1:I1"/>
     </customSheetView>
-    <customSheetView guid="{68C7A9E5-036F-4DD3-A805-314E491C8CD0}" scale="85" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A665">
-      <selection activeCell="E670" sqref="E670"/>
+    <customSheetView guid="{9452BFA9-F306-4F48-B1C8-741501AD081D}" scale="85" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A459">
+      <selection activeCell="F500" sqref="F500"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId3"/>
@@ -32299,11 +32048,11 @@
       </headerFooter>
       <autoFilter ref="B1:I1"/>
     </customSheetView>
-    <customSheetView guid="{E690B21E-BFAF-4A02-823B-1819B4722AAE}" scale="90" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A277">
-      <selection activeCell="A290" sqref="A290:IV290"/>
+    <customSheetView guid="{89073D8E-0AE0-49EC-9FD8-20E398E04528}" scale="70" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A60">
+      <selection activeCell="C60" sqref="C1:E65536"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId4"/>
+      <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId4"/>
       <headerFooter>
         <oddHeader xml:space="preserve">&amp;C&amp;G
 &amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
@@ -32327,11 +32076,11 @@
       </headerFooter>
       <autoFilter ref="B1:I1"/>
     </customSheetView>
-    <customSheetView guid="{89073D8E-0AE0-49EC-9FD8-20E398E04528}" scale="70" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A60">
-      <selection activeCell="C60" sqref="C1:E65536"/>
+    <customSheetView guid="{E690B21E-BFAF-4A02-823B-1819B4722AAE}" scale="90" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A277">
+      <selection activeCell="A290" sqref="A290:IV290"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+      <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId6"/>
       <headerFooter>
         <oddHeader xml:space="preserve">&amp;C&amp;G
 &amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
@@ -32341,8 +32090,8 @@
       </headerFooter>
       <autoFilter ref="B1:I1"/>
     </customSheetView>
-    <customSheetView guid="{9452BFA9-F306-4F48-B1C8-741501AD081D}" scale="85" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A459">
-      <selection activeCell="F500" sqref="F500"/>
+    <customSheetView guid="{68C7A9E5-036F-4DD3-A805-314E491C8CD0}" scale="85" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" view="pageLayout" topLeftCell="A665">
+      <selection activeCell="E670" sqref="E670"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId7"/>
@@ -32355,8 +32104,8 @@
       </headerFooter>
       <autoFilter ref="B1:I1"/>
     </customSheetView>
-    <customSheetView guid="{5DF4CEDA-4523-49B7-9C49-FC8611FF3AA1}" scale="85" showPageBreaks="1" fitToPage="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="A49">
-      <selection activeCell="E864" sqref="E864"/>
+    <customSheetView guid="{6951E995-407C-4861-AA2B-D6241F5E37C7}" scale="120" fitToPage="1" hiddenColumns="1" topLeftCell="A65">
+      <selection activeCell="I80" sqref="I80"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId8"/>
@@ -32367,7 +32116,6 @@
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
-      <autoFilter ref="B1:I1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">

--- a/src/main/webapp/WEB-INF/wineprice/Tarif Formats 2016 Duclot Export.xlsx
+++ b/src/main/webapp/WEB-INF/wineprice/Tarif Formats 2016 Duclot Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesHo\wildfly-8.2.1.Final\standalone\deployments\comparewine.war\WEB-INF\wineprice\"/>
     </mc:Choice>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="318">
   <si>
     <t>Pomerol</t>
   </si>
@@ -1002,6 +1002,15 @@
   <si>
     <t>CROIX DE BEAUCAILLOU GRANDE RESERVE</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price Euro</t>
+  </si>
+  <si>
+    <t>Bottle Size</t>
+  </si>
 </sst>
 </file>
 
@@ -1013,7 +1022,7 @@
   <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1042,14 +1051,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
@@ -1082,20 +1091,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="36"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="22"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1116,32 +1125,32 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="48"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="36"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="28"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
@@ -1174,7 +1183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4487,16 +4496,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="35.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="8" customWidth="1"/>
-    <col min="9" max="255" width="11.375" style="1" customWidth="1"/>
-    <col min="256" max="16384" width="0.125" style="1" hidden="1"/>
+    <col min="1" max="1" customWidth="true" style="13" width="35.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="23.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="13.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="10.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="10.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="26.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="8" width="22.875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="8" width="7.625" collapsed="true"/>
+    <col min="9" max="255" customWidth="true" style="1" width="11.375" collapsed="true"/>
+    <col min="256" max="16384" hidden="true" style="1" width="0.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -4559,7 +4568,7 @@
     <row r="26" spans="1:7" ht="42.75" customHeight="1"/>
     <row r="80" spans="1:9" s="57" customFormat="1" ht="15">
       <c r="A80" s="45" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="B80" s="45" t="s">
         <v>154</v>
@@ -4571,13 +4580,13 @@
         <v>156</v>
       </c>
       <c r="E80" s="46" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="F80" s="45" t="s">
         <v>157</v>
       </c>
       <c r="G80" s="47" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="H80" s="47" t="s">
         <v>165</v>
@@ -32012,9 +32021,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32026,9 +32035,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId2"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32040,9 +32049,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId3"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32054,9 +32063,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId4"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32068,9 +32077,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId5"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32082,9 +32091,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId6"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32096,9 +32105,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" r:id="rId7"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32110,9 +32119,9 @@
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId8"/>
       <headerFooter>
-        <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+        <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
         <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
       </headerFooter>
@@ -32128,9 +32137,9 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="1.6535433070866143" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId9"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;C&amp;G
-&amp;"Tw Cen MT,Normal"&amp;14Tarif Format - Duclot Export&amp;"-,Normal"&amp;11
-</oddHeader>
+    <oddHeader xml:space="preserve"><![CDATA[&C&G
+&"Tw Cen MT,Normal"&14Tarif Format - Duclot Export&"-,Normal"&11
+]]></oddHeader>
     <oddFooter>&amp;CPRICES IN EURO EX CELLARS BORDEAUX - SUBJECT TO AVAILIBILITY
 Page &amp;P de &amp;N</oddFooter>
   </headerFooter>
